--- a/Code/Results/Cases/Case_6_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.453988254147191</v>
+        <v>3.487735435744071</v>
       </c>
       <c r="C2">
-        <v>0.9057793449278506</v>
+        <v>0.9223051633822479</v>
       </c>
       <c r="D2">
-        <v>0.04333747144372779</v>
+        <v>0.219805170300404</v>
       </c>
       <c r="E2">
-        <v>0.1187025572448555</v>
+        <v>0.1769283123620298</v>
       </c>
       <c r="F2">
-        <v>2.408126115255556</v>
+        <v>0.6981650994431519</v>
       </c>
       <c r="G2">
-        <v>0.0007990131146391369</v>
+        <v>0.0007920446973618164</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2262125173707972</v>
+        <v>0.1876790209836301</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.616448214194165</v>
+        <v>1.413120557108471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.987229856099646</v>
+        <v>3.031029063496533</v>
       </c>
       <c r="C3">
-        <v>0.7816783871808468</v>
+        <v>0.805298374581696</v>
       </c>
       <c r="D3">
-        <v>0.03837856065944578</v>
+        <v>0.1948154025793656</v>
       </c>
       <c r="E3">
-        <v>0.1054628768891632</v>
+        <v>0.1573862517503812</v>
       </c>
       <c r="F3">
-        <v>2.198138406670395</v>
+        <v>0.6601959090400342</v>
       </c>
       <c r="G3">
-        <v>0.0008081916530669981</v>
+        <v>0.0007970935189629533</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2010894911752956</v>
+        <v>0.167334072078603</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.478572682765005</v>
+        <v>1.36685318664945</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.704867826761927</v>
+        <v>2.751312525776768</v>
       </c>
       <c r="C4">
-        <v>0.7064721927355038</v>
+        <v>0.7335352988182819</v>
       </c>
       <c r="D4">
-        <v>0.03535058731190333</v>
+        <v>0.1795883897904247</v>
       </c>
       <c r="E4">
-        <v>0.09752354447082112</v>
+        <v>0.1455666513301885</v>
       </c>
       <c r="F4">
-        <v>2.075413344182081</v>
+        <v>0.639054148840529</v>
       </c>
       <c r="G4">
-        <v>0.0008139641180429594</v>
+        <v>0.0008002875344638276</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1861414758223532</v>
+        <v>0.1551241570609392</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.398345258300907</v>
+        <v>1.344328155405663</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.590709662123459</v>
+        <v>2.637450829189504</v>
       </c>
       <c r="C5">
-        <v>0.6760332828541493</v>
+        <v>0.7042999151950369</v>
       </c>
       <c r="D5">
-        <v>0.0341202597439576</v>
+        <v>0.1734092781735939</v>
       </c>
       <c r="E5">
-        <v>0.09433063933526498</v>
+        <v>0.1407909784455263</v>
       </c>
       <c r="F5">
-        <v>2.026809180420429</v>
+        <v>0.6309501266602595</v>
       </c>
       <c r="G5">
-        <v>0.0008163528944687562</v>
+        <v>0.0008016133636654314</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1801568023402993</v>
+        <v>0.1502132121381266</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.366655836243496</v>
+        <v>1.336536744953904</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.571804234026786</v>
+        <v>2.618550293477483</v>
       </c>
       <c r="C6">
-        <v>0.670990369042471</v>
+        <v>0.6994456093485155</v>
       </c>
       <c r="D6">
-        <v>0.03391616494874938</v>
+        <v>0.1723847191212968</v>
       </c>
       <c r="E6">
-        <v>0.09380287689301525</v>
+        <v>0.1400003352422345</v>
       </c>
       <c r="F6">
-        <v>2.018819254962196</v>
+        <v>0.62963437392618</v>
       </c>
       <c r="G6">
-        <v>0.0008167518071294428</v>
+        <v>0.0008018349977039275</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.179169133088827</v>
+        <v>0.1494014865220237</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.361451441837303</v>
+        <v>1.335324221666241</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.703324775612202</v>
+        <v>2.74977650641722</v>
       </c>
       <c r="C7">
-        <v>0.7060608915575699</v>
+        <v>0.7331409995535978</v>
       </c>
       <c r="D7">
-        <v>0.03533398090402784</v>
+        <v>0.1795049550481025</v>
       </c>
       <c r="E7">
-        <v>0.09748031867481544</v>
+        <v>0.14550208462542</v>
       </c>
       <c r="F7">
-        <v>2.07475234667325</v>
+        <v>0.6389428287512544</v>
       </c>
       <c r="G7">
-        <v>0.0008139961837184938</v>
+        <v>0.0008003053161765306</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1860603488869756</v>
+        <v>0.1550576723249435</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.39791395681101</v>
+        <v>1.344217576193756</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.292072844651216</v>
+        <v>3.330084743899931</v>
       </c>
       <c r="C8">
-        <v>0.862757206522673</v>
+        <v>0.8819375659725779</v>
       </c>
       <c r="D8">
-        <v>0.04162374136179636</v>
+        <v>0.2111623612923523</v>
       </c>
       <c r="E8">
-        <v>0.1140947470435592</v>
+        <v>0.1701503942647875</v>
       </c>
       <c r="F8">
-        <v>2.334336737940049</v>
+        <v>0.6846011505927549</v>
       </c>
       <c r="G8">
-        <v>0.0008021507721363008</v>
+        <v>0.000793766389567278</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2174425380179486</v>
+        <v>0.180601698770154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.567920286235974</v>
+        <v>1.395889603805216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.488144981922062</v>
+        <v>4.476227314345749</v>
       </c>
       <c r="C9">
-        <v>1.180021149619222</v>
+        <v>1.174930707244187</v>
       </c>
       <c r="D9">
-        <v>0.05412495874514889</v>
+        <v>0.2743350393308646</v>
       </c>
       <c r="E9">
-        <v>0.148451741557885</v>
+        <v>0.2201127365596562</v>
       </c>
       <c r="F9">
-        <v>2.900408967743999</v>
+        <v>0.7930397663205611</v>
       </c>
       <c r="G9">
-        <v>0.0007799042858026572</v>
+        <v>0.0007816605207487948</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2834483757213491</v>
+        <v>0.2332332573122216</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.941983385914583</v>
+        <v>1.548325045074762</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.404939332037486</v>
+        <v>5.327254658143147</v>
       </c>
       <c r="C10">
-        <v>1.422579537058937</v>
+        <v>1.391816209913713</v>
       </c>
       <c r="D10">
-        <v>0.06346665588461065</v>
+        <v>0.3216677373780357</v>
       </c>
       <c r="E10">
-        <v>0.1752052731232254</v>
+        <v>0.2581219470014631</v>
       </c>
       <c r="F10">
-        <v>3.363386659139451</v>
+        <v>0.8867441218756085</v>
       </c>
       <c r="G10">
-        <v>0.0007639957965818146</v>
+        <v>0.0007731598294713927</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.335739437408165</v>
+        <v>0.2739074170413005</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.250396104209827</v>
+        <v>1.698109802823097</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.833632217782394</v>
+        <v>5.717336403938077</v>
       </c>
       <c r="C11">
-        <v>1.5358792308229</v>
+        <v>1.491056393617612</v>
       </c>
       <c r="D11">
-        <v>0.06776539078608579</v>
+        <v>0.3434624876550174</v>
       </c>
       <c r="E11">
-        <v>0.1878174306745208</v>
+        <v>0.2757718020357842</v>
       </c>
       <c r="F11">
-        <v>3.58748257362862</v>
+        <v>0.9330322114010556</v>
       </c>
       <c r="G11">
-        <v>0.0007568106642998128</v>
+        <v>0.0007693675703654855</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3606364017349932</v>
+        <v>0.2929586001116462</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.400315479094118</v>
+        <v>1.776074778434065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.99797067595847</v>
+        <v>5.865562556028692</v>
       </c>
       <c r="C12">
-        <v>1.579297092827915</v>
+        <v>1.528739143956443</v>
       </c>
       <c r="D12">
-        <v>0.06940173050707443</v>
+        <v>0.351759002108551</v>
       </c>
       <c r="E12">
-        <v>0.1926679713992172</v>
+        <v>0.2825138942987735</v>
       </c>
       <c r="F12">
-        <v>3.674601745155456</v>
+        <v>0.9511429432451308</v>
       </c>
       <c r="G12">
-        <v>0.0007540931150013251</v>
+        <v>0.0007679413440730178</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.370251790848755</v>
+        <v>0.3002618597135864</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.458698680236083</v>
+        <v>1.807159923084015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.962482651465223</v>
+        <v>5.833615214597103</v>
       </c>
       <c r="C13">
-        <v>1.569921875157888</v>
+        <v>1.520618592636595</v>
       </c>
       <c r="D13">
-        <v>0.069048912098296</v>
+        <v>0.3499701796138339</v>
       </c>
       <c r="E13">
-        <v>0.1916198090318986</v>
+        <v>0.2810591482763201</v>
       </c>
       <c r="F13">
-        <v>3.655732982605542</v>
+        <v>0.9472156244047483</v>
       </c>
       <c r="G13">
-        <v>0.0007546783133500714</v>
+        <v>0.0007682480863154621</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3681721169248107</v>
+        <v>0.2986848426505588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.446049099055656</v>
+        <v>1.800393225445504</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.847110264031812</v>
+        <v>5.729520295864234</v>
       </c>
       <c r="C14">
-        <v>1.539440393195491</v>
+        <v>1.494154400264563</v>
       </c>
       <c r="D14">
-        <v>0.06789983403440658</v>
+        <v>0.3441441454090608</v>
       </c>
       <c r="E14">
-        <v>0.1882149233411283</v>
+        <v>0.2763252648663084</v>
       </c>
       <c r="F14">
-        <v>3.594602640481781</v>
+        <v>0.9345101809981173</v>
       </c>
       <c r="G14">
-        <v>0.0007565870496186383</v>
+        <v>0.0007692500426150305</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3614235335550688</v>
+        <v>0.2935575987393264</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.405084958291681</v>
+        <v>1.778599979249748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.776712627510904</v>
+        <v>5.665828381503729</v>
       </c>
       <c r="C15">
-        <v>1.520839364283745</v>
+        <v>1.477958298232636</v>
       </c>
       <c r="D15">
-        <v>0.06719714411752165</v>
+        <v>0.3405813443926036</v>
       </c>
       <c r="E15">
-        <v>0.186139403096945</v>
+        <v>0.2734334524916022</v>
       </c>
       <c r="F15">
-        <v>3.557463045971303</v>
+        <v>0.9268053260309586</v>
       </c>
       <c r="G15">
-        <v>0.0007577565027208511</v>
+        <v>0.0007698650197612788</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3573151443241613</v>
+        <v>0.290428919906546</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.380210550215466</v>
+        <v>1.765458973000932</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.377184384109796</v>
+        <v>5.301828429273144</v>
       </c>
       <c r="C16">
-        <v>1.415241910292423</v>
+        <v>1.385343887648105</v>
       </c>
       <c r="D16">
-        <v>0.06318683016548476</v>
+        <v>0.3202491490586112</v>
       </c>
       <c r="E16">
-        <v>0.1743908377225551</v>
+        <v>0.2569762854615192</v>
       </c>
       <c r="F16">
-        <v>3.349039066449564</v>
+        <v>0.8837974324227815</v>
       </c>
       <c r="G16">
-        <v>0.0007644660629827969</v>
+        <v>0.0007734090890579356</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3341369783032206</v>
+        <v>0.272674257018835</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.240810872173924</v>
+        <v>1.693224737703474</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.135286112143035</v>
+        <v>5.07934007043383</v>
       </c>
       <c r="C17">
-        <v>1.351277722696068</v>
+        <v>1.328689284477889</v>
       </c>
       <c r="D17">
-        <v>0.06074017459460634</v>
+        <v>0.307847103791957</v>
       </c>
       <c r="E17">
-        <v>0.1673040008926634</v>
+        <v>0.2469770229302597</v>
       </c>
       <c r="F17">
-        <v>3.224844347875433</v>
+        <v>0.8583895268125588</v>
       </c>
       <c r="G17">
-        <v>0.0007685926521934086</v>
+        <v>0.0007756017687685469</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3202206570187371</v>
+        <v>0.26192971283632</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.157909856548685</v>
+        <v>1.651529795029802</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.997225793191546</v>
+        <v>4.951642180928218</v>
       </c>
       <c r="C18">
-        <v>1.314759677442566</v>
+        <v>1.29615617065167</v>
       </c>
       <c r="D18">
-        <v>0.05933745138192847</v>
+        <v>0.3007381594282919</v>
       </c>
       <c r="E18">
-        <v>0.1632686771299845</v>
+        <v>0.2412590857208343</v>
       </c>
       <c r="F18">
-        <v>3.154658364221234</v>
+        <v>0.8441165809722122</v>
       </c>
       <c r="G18">
-        <v>0.0007709713054983471</v>
+        <v>0.0007768700357603315</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3123188899183447</v>
+        <v>0.2558006846345364</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.111117405415342</v>
+        <v>1.628463310531686</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.950656042152559</v>
+        <v>4.90844997983379</v>
       </c>
       <c r="C19">
-        <v>1.302439617539562</v>
+        <v>1.285149574383354</v>
       </c>
       <c r="D19">
-        <v>0.05886325092686207</v>
+        <v>0.2983352208924259</v>
       </c>
       <c r="E19">
-        <v>0.1619090890838777</v>
+        <v>0.2393286247271433</v>
       </c>
       <c r="F19">
-        <v>3.131099883744554</v>
+        <v>0.8393409516831127</v>
       </c>
       <c r="G19">
-        <v>0.0007717776770357201</v>
+        <v>0.0007773006949586594</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3096603143476955</v>
+        <v>0.2537339573133579</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.095420733801973</v>
+        <v>1.620806298997479</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.160923305329902</v>
+        <v>5.102995628031692</v>
       </c>
       <c r="C20">
-        <v>1.358058024275863</v>
+        <v>1.334714630768531</v>
       </c>
       <c r="D20">
-        <v>0.06100014688724542</v>
+        <v>0.3091647606378984</v>
       </c>
       <c r="E20">
-        <v>0.1680541053916187</v>
+        <v>0.2480379599920042</v>
       </c>
       <c r="F20">
-        <v>3.237933808454443</v>
+        <v>0.8610585592872866</v>
       </c>
       <c r="G20">
-        <v>0.0007681528650102297</v>
+        <v>0.0007753676263583476</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.321691272617997</v>
+        <v>0.2630681442687717</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.166641151248442</v>
+        <v>1.655872525596152</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.880940737842252</v>
+        <v>5.760080902303514</v>
       </c>
       <c r="C21">
-        <v>1.548378827998647</v>
+        <v>1.501924624074491</v>
       </c>
       <c r="D21">
-        <v>0.06823710283236295</v>
+        <v>0.3458541708664882</v>
       </c>
       <c r="E21">
-        <v>0.1892128999532545</v>
+        <v>0.2777140768056583</v>
       </c>
       <c r="F21">
-        <v>3.612494003366692</v>
+        <v>0.9382257997783796</v>
       </c>
       <c r="G21">
-        <v>0.0007560263538964987</v>
+        <v>0.0007689554850170421</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3634004248534239</v>
+        <v>0.2950610938999176</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.417071373180519</v>
+        <v>1.784957555747866</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.363372083192814</v>
+        <v>6.192547120615302</v>
       </c>
       <c r="C22">
-        <v>1.675810441670023</v>
+        <v>1.611814788741526</v>
       </c>
       <c r="D22">
-        <v>0.07301726216871884</v>
+        <v>0.3700882261461373</v>
       </c>
       <c r="E22">
-        <v>0.2034825759746184</v>
+        <v>0.2974535923837465</v>
       </c>
       <c r="F22">
-        <v>3.870643365917971</v>
+        <v>0.99208363490105</v>
       </c>
       <c r="G22">
-        <v>0.0007481178477148947</v>
+        <v>0.0007648215287921478</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3917686023712434</v>
+        <v>0.3164944383791379</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.590270880698455</v>
+        <v>1.878502557020113</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.104682291948734</v>
+        <v>5.961424182277199</v>
       </c>
       <c r="C23">
-        <v>1.607486134465262</v>
+        <v>1.553101676107417</v>
       </c>
       <c r="D23">
-        <v>0.07046085647802158</v>
+        <v>0.3571287298433816</v>
       </c>
       <c r="E23">
-        <v>0.195822103773196</v>
+        <v>0.2868843078025805</v>
       </c>
       <c r="F23">
-        <v>3.731523374396289</v>
+        <v>0.9630055222097269</v>
       </c>
       <c r="G23">
-        <v>0.0007523387567105944</v>
+        <v>0.0007670230343876828</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3765161204104714</v>
+        <v>0.3050035025127613</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.496874040127864</v>
+        <v>1.827683195611399</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.149329607804987</v>
+        <v>5.092300291514277</v>
       </c>
       <c r="C24">
-        <v>1.354991859594634</v>
+        <v>1.331990453644266</v>
       </c>
       <c r="D24">
-        <v>0.06088260139720347</v>
+        <v>0.3085689824903568</v>
       </c>
       <c r="E24">
-        <v>0.1677148625048801</v>
+        <v>0.2475582150058031</v>
       </c>
       <c r="F24">
-        <v>3.232012301721767</v>
+        <v>0.8598508522977397</v>
       </c>
       <c r="G24">
-        <v>0.0007683516730974978</v>
+        <v>0.0007754734581791323</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3210261012681741</v>
+        <v>0.2625533101865756</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.162691044699912</v>
+        <v>1.653906370865201</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.158914350007137</v>
+        <v>4.16490134508166</v>
       </c>
       <c r="C25">
-        <v>1.092802326089327</v>
+        <v>1.095452405707192</v>
       </c>
       <c r="D25">
-        <v>0.05071993876428849</v>
+        <v>0.2571032437601417</v>
       </c>
       <c r="E25">
-        <v>0.1389261581035797</v>
+        <v>0.2063919089114634</v>
       </c>
       <c r="F25">
-        <v>2.739989289348216</v>
+        <v>0.7614333335020831</v>
       </c>
       <c r="G25">
-        <v>0.0007858330006387021</v>
+        <v>0.0007848630354020918</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2650114223917086</v>
+        <v>0.2186781337306059</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.835594795205381</v>
+        <v>1.500962815623751</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.487735435744071</v>
+        <v>3.465051155964261</v>
       </c>
       <c r="C2">
-        <v>0.9223051633822479</v>
+        <v>1.021879476191344</v>
       </c>
       <c r="D2">
-        <v>0.219805170300404</v>
+        <v>0.2735814344184746</v>
       </c>
       <c r="E2">
-        <v>0.1769283123620298</v>
+        <v>0.1903917448700554</v>
       </c>
       <c r="F2">
-        <v>0.6981650994431519</v>
+        <v>0.4797609812834196</v>
       </c>
       <c r="G2">
-        <v>0.0007920446973618164</v>
+        <v>0.2123827456523841</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003372259577535619</v>
       </c>
       <c r="J2">
-        <v>0.1876790209836301</v>
+        <v>0.2029318692150639</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1229894834461085</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1798833726119398</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.413120557108471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8248893417448926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.031029063496533</v>
+        <v>3.021029507186597</v>
       </c>
       <c r="C3">
-        <v>0.805298374581696</v>
+        <v>0.8976297831056854</v>
       </c>
       <c r="D3">
-        <v>0.1948154025793656</v>
+        <v>0.2434222346309269</v>
       </c>
       <c r="E3">
-        <v>0.1573862517503812</v>
+        <v>0.1696909732130081</v>
       </c>
       <c r="F3">
-        <v>0.6601959090400342</v>
+        <v>0.4568826862929356</v>
       </c>
       <c r="G3">
-        <v>0.0007970935189629533</v>
+        <v>0.2042888269050991</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00203552235570692</v>
       </c>
       <c r="J3">
-        <v>0.167334072078603</v>
+        <v>0.2051880110462889</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1354151606925136</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1605249630140477</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.36685318664945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.81209304679696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.751312525776768</v>
+        <v>2.747965432064461</v>
       </c>
       <c r="C4">
-        <v>0.7335352988182819</v>
+        <v>0.8217587719485664</v>
       </c>
       <c r="D4">
-        <v>0.1795883897904247</v>
+        <v>0.2251036683538103</v>
       </c>
       <c r="E4">
-        <v>0.1455666513301885</v>
+        <v>0.1571561732488824</v>
       </c>
       <c r="F4">
-        <v>0.639054148840529</v>
+        <v>0.4438076467878673</v>
       </c>
       <c r="G4">
-        <v>0.0008002875344638276</v>
+        <v>0.1999769351978884</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001413802666464736</v>
       </c>
       <c r="J4">
-        <v>0.1551241570609392</v>
+        <v>0.2070049694633269</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1435590757038572</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1488439976523424</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.344328155405663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.806525227585098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.637450829189504</v>
+        <v>2.636540885157444</v>
       </c>
       <c r="C5">
-        <v>0.7042999151950369</v>
+        <v>0.7922905662450717</v>
       </c>
       <c r="D5">
-        <v>0.1734092781735939</v>
+        <v>0.2178139626875435</v>
       </c>
       <c r="E5">
-        <v>0.1407909784455263</v>
+        <v>0.1521199418888912</v>
       </c>
       <c r="F5">
-        <v>0.6309501266602595</v>
+        <v>0.4382727098001027</v>
       </c>
       <c r="G5">
-        <v>0.0008016133636654314</v>
+        <v>0.1980367003150008</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001266564978780416</v>
       </c>
       <c r="J5">
-        <v>0.1502132121381266</v>
+        <v>0.207669487656247</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.146887227152606</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1441136129791118</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.336536744953904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8037066955698435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.618550293477483</v>
+        <v>2.618002771387921</v>
       </c>
       <c r="C6">
-        <v>0.6994456093485155</v>
+        <v>0.7890644105860645</v>
       </c>
       <c r="D6">
-        <v>0.1723847191212968</v>
+        <v>0.2167637933586946</v>
       </c>
       <c r="E6">
-        <v>0.1400003352422345</v>
+        <v>0.1513239306761314</v>
       </c>
       <c r="F6">
-        <v>0.62963437392618</v>
+        <v>0.4368316972833597</v>
       </c>
       <c r="G6">
-        <v>0.0008018349977039275</v>
+        <v>0.1973098695246946</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001325115905149943</v>
       </c>
       <c r="J6">
-        <v>0.1494014865220237</v>
+        <v>0.2075659123979747</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1473080352687339</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1433090062141744</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.335324221666241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8019325886589002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74977650641722</v>
+        <v>2.746385834140426</v>
       </c>
       <c r="C7">
-        <v>0.7331409995535978</v>
+        <v>0.8259106571410655</v>
       </c>
       <c r="D7">
-        <v>0.1795049550481025</v>
+        <v>0.225435845256996</v>
       </c>
       <c r="E7">
-        <v>0.14550208462542</v>
+        <v>0.1571915600374219</v>
       </c>
       <c r="F7">
-        <v>0.6389428287512544</v>
+        <v>0.44226973072211</v>
       </c>
       <c r="G7">
-        <v>0.0008003053161765306</v>
+        <v>0.1988203020684622</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001615886392023036</v>
       </c>
       <c r="J7">
-        <v>0.1550576723249435</v>
+        <v>0.2064135186079596</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1432266911721172</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1487200873162706</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.344217576193756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8028330661166621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.330084743899931</v>
+        <v>3.311926311426532</v>
       </c>
       <c r="C8">
-        <v>0.8819375659725779</v>
+        <v>0.985024703365184</v>
       </c>
       <c r="D8">
-        <v>0.2111623612923523</v>
+        <v>0.2637107579263898</v>
       </c>
       <c r="E8">
-        <v>0.1701503942647875</v>
+        <v>0.1833527079658452</v>
       </c>
       <c r="F8">
-        <v>0.6846011505927549</v>
+        <v>0.4697303097080123</v>
       </c>
       <c r="G8">
-        <v>0.000793766389567278</v>
+        <v>0.2079580173230227</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003110217880180066</v>
       </c>
       <c r="J8">
-        <v>0.180601698770154</v>
+        <v>0.2028293395942029</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1266846954737417</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1730836113573844</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.395889603805216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8151713222642343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.476227314345749</v>
+        <v>4.418544318954616</v>
       </c>
       <c r="C9">
-        <v>1.174930707244187</v>
+        <v>1.292647999210658</v>
       </c>
       <c r="D9">
-        <v>0.2743350393308646</v>
+        <v>0.3397453234851753</v>
       </c>
       <c r="E9">
-        <v>0.2201127365596562</v>
+        <v>0.2360203214255847</v>
       </c>
       <c r="F9">
-        <v>0.7930397663205611</v>
+        <v>0.534542898845757</v>
       </c>
       <c r="G9">
-        <v>0.0007816605207487948</v>
+        <v>0.2335830648893307</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00748644505180085</v>
       </c>
       <c r="J9">
-        <v>0.2332332573122216</v>
+        <v>0.2004968424637994</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0992112128527225</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2227893843015067</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.548325045074762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8654636910717954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.327254658143147</v>
+        <v>5.231403836317384</v>
       </c>
       <c r="C10">
-        <v>1.391816209913713</v>
+        <v>1.524138129916992</v>
       </c>
       <c r="D10">
-        <v>0.3216677373780357</v>
+        <v>0.3971467168371419</v>
       </c>
       <c r="E10">
-        <v>0.2581219470014631</v>
+        <v>0.2759478497617209</v>
       </c>
       <c r="F10">
-        <v>0.8867441218756085</v>
+        <v>0.5874658923598659</v>
       </c>
       <c r="G10">
-        <v>0.0007731598294713927</v>
+        <v>0.2560161343053124</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01211804182532905</v>
       </c>
       <c r="J10">
-        <v>0.2739074170413005</v>
+        <v>0.2010120863251998</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.08185584546106117</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2606737815840461</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.698109802823097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9146827399135162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.717336403938077</v>
+        <v>5.601374140601479</v>
       </c>
       <c r="C11">
-        <v>1.491056393617612</v>
+        <v>1.638081943694885</v>
       </c>
       <c r="D11">
-        <v>0.3434624876550174</v>
+        <v>0.4243221335866281</v>
       </c>
       <c r="E11">
-        <v>0.2757718020357842</v>
+        <v>0.294593975580284</v>
       </c>
       <c r="F11">
-        <v>0.9330322114010556</v>
+        <v>0.6107003928736034</v>
       </c>
       <c r="G11">
-        <v>0.0007693675703654855</v>
+        <v>0.2654695419425792</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01489193871436001</v>
       </c>
       <c r="J11">
-        <v>0.2929586001116462</v>
+        <v>0.2009160995572756</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0741874000255498</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2781781489496922</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.776074778434065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9347790888329115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.865562556028692</v>
+        <v>5.741626229956637</v>
       </c>
       <c r="C12">
-        <v>1.528739143956443</v>
+        <v>1.677269388226705</v>
       </c>
       <c r="D12">
-        <v>0.351759002108551</v>
+        <v>0.4342890344600505</v>
       </c>
       <c r="E12">
-        <v>0.2825138942987735</v>
+        <v>0.3016144712471274</v>
       </c>
       <c r="F12">
-        <v>0.9511429432451308</v>
+        <v>0.621000614160458</v>
       </c>
       <c r="G12">
-        <v>0.0007679413440730178</v>
+        <v>0.2701865043756797</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01582820644464444</v>
       </c>
       <c r="J12">
-        <v>0.3002618597135864</v>
+        <v>0.2014822239381857</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.07167290486699329</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2849196573301072</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.807159923084015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9460599399432681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.833615214597103</v>
+        <v>5.711431729173682</v>
       </c>
       <c r="C13">
-        <v>1.520618592636595</v>
+        <v>1.66799366045251</v>
       </c>
       <c r="D13">
-        <v>0.3499701796138339</v>
+        <v>0.4320635267156092</v>
       </c>
       <c r="E13">
-        <v>0.2810591482763201</v>
+        <v>0.3000820223469418</v>
       </c>
       <c r="F13">
-        <v>0.9472156244047483</v>
+        <v>0.6190248868852919</v>
       </c>
       <c r="G13">
-        <v>0.0007682480863154621</v>
+        <v>0.2693573800747089</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01558729593667341</v>
       </c>
       <c r="J13">
-        <v>0.2986848426505588</v>
+        <v>0.2014575551714088</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.07226348585260922</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2834758297733515</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.800393225445504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.94422998636432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.729520295864234</v>
+        <v>5.612917477131134</v>
       </c>
       <c r="C14">
-        <v>1.494154400264563</v>
+        <v>1.640950802784801</v>
       </c>
       <c r="D14">
-        <v>0.3441441454090608</v>
+        <v>0.4251085198724525</v>
       </c>
       <c r="E14">
-        <v>0.2763252648663084</v>
+        <v>0.2951628114807221</v>
       </c>
       <c r="F14">
-        <v>0.9345101809981173</v>
+        <v>0.6116506180992261</v>
       </c>
       <c r="G14">
-        <v>0.0007692500426150305</v>
+        <v>0.2659367796385297</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01495191653468186</v>
       </c>
       <c r="J14">
-        <v>0.2935575987393264</v>
+        <v>0.2010039103422372</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.07400130545650452</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2787361429847834</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.778599979249748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9359613609966715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.665828381503729</v>
+        <v>5.55255595387365</v>
       </c>
       <c r="C15">
-        <v>1.477958298232636</v>
+        <v>1.626037373897702</v>
       </c>
       <c r="D15">
-        <v>0.3405813443926036</v>
+        <v>0.421006191499032</v>
       </c>
       <c r="E15">
-        <v>0.2734334524916022</v>
+        <v>0.2921920699370659</v>
       </c>
       <c r="F15">
-        <v>0.9268053260309586</v>
+        <v>0.6066661220884129</v>
       </c>
       <c r="G15">
-        <v>0.0007698650197612788</v>
+        <v>0.263480987770599</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01464667772006667</v>
       </c>
       <c r="J15">
-        <v>0.290428919906546</v>
+        <v>0.2005384440699487</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.07497365301529335</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2758195973311928</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.765458973000932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9297392830627871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.301828429273144</v>
+        <v>5.206985842086624</v>
       </c>
       <c r="C16">
-        <v>1.385343887648105</v>
+        <v>1.530411862693711</v>
       </c>
       <c r="D16">
-        <v>0.3202491490586112</v>
+        <v>0.3966443648003519</v>
       </c>
       <c r="E16">
-        <v>0.2569762854615192</v>
+        <v>0.2750373803467099</v>
       </c>
       <c r="F16">
-        <v>0.8837974324227815</v>
+        <v>0.5817658674399979</v>
       </c>
       <c r="G16">
-        <v>0.0007734090890579356</v>
+        <v>0.2521858254977118</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01253688486412763</v>
       </c>
       <c r="J16">
-        <v>0.272674257018835</v>
+        <v>0.1993382237176888</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.0814492146545005</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2593589583195808</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.693224737703474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.9030412953057834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.07934007043383</v>
+        <v>4.995098167652202</v>
       </c>
       <c r="C17">
-        <v>1.328689284477889</v>
+        <v>1.471920769697533</v>
       </c>
       <c r="D17">
-        <v>0.307847103791957</v>
+        <v>0.3817864472138979</v>
       </c>
       <c r="E17">
-        <v>0.2469770229302597</v>
+        <v>0.264595767035523</v>
       </c>
       <c r="F17">
-        <v>0.8583895268125588</v>
+        <v>0.5669142110358294</v>
       </c>
       <c r="G17">
-        <v>0.0007756017687685469</v>
+        <v>0.2455540329379886</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01134145597045944</v>
       </c>
       <c r="J17">
-        <v>0.26192971283632</v>
+        <v>0.198771838506822</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.08561711007729045</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2493610735459697</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.651529795029802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8876468917654989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.951642180928218</v>
+        <v>4.87333032202605</v>
       </c>
       <c r="C18">
-        <v>1.29615617065167</v>
+        <v>1.434189095412478</v>
       </c>
       <c r="D18">
-        <v>0.3007381594282919</v>
+        <v>0.3728875365736712</v>
       </c>
       <c r="E18">
-        <v>0.2412590857208343</v>
+        <v>0.2585273819727973</v>
       </c>
       <c r="F18">
-        <v>0.8441165809722122</v>
+        <v>0.5597962599001249</v>
       </c>
       <c r="G18">
-        <v>0.0007768700357603315</v>
+        <v>0.2428220695547765</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0104703535520505</v>
       </c>
       <c r="J18">
-        <v>0.2558006846345364</v>
+        <v>0.1990191680268296</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.08836247397726549</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2436994722998804</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.628463310531686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8822862617351461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.90844997983379</v>
+        <v>4.832049385057189</v>
       </c>
       <c r="C19">
-        <v>1.285149574383354</v>
+        <v>1.424622442141811</v>
       </c>
       <c r="D19">
-        <v>0.2983352208924259</v>
+        <v>0.3701754028183899</v>
       </c>
       <c r="E19">
-        <v>0.2393286247271433</v>
+        <v>0.2565479692984241</v>
       </c>
       <c r="F19">
-        <v>0.8393409516831127</v>
+        <v>0.5564277929660548</v>
       </c>
       <c r="G19">
-        <v>0.0007773006949586594</v>
+        <v>0.2411601192998916</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01034602176199417</v>
       </c>
       <c r="J19">
-        <v>0.2537339573133579</v>
+        <v>0.1987175299188522</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.08908850136268143</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2417467224590695</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.620806298997479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8781019187752719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.102995628031692</v>
+        <v>5.017656389237288</v>
       </c>
       <c r="C20">
-        <v>1.334714630768531</v>
+        <v>1.477815004167155</v>
       </c>
       <c r="D20">
-        <v>0.3091647606378984</v>
+        <v>0.3833347906945903</v>
       </c>
       <c r="E20">
-        <v>0.2480379599920042</v>
+        <v>0.265697120826367</v>
       </c>
       <c r="F20">
-        <v>0.8610585592872866</v>
+        <v>0.5685796051128023</v>
       </c>
       <c r="G20">
-        <v>0.0007753676263583476</v>
+        <v>0.2463257504528684</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0114477306208709</v>
       </c>
       <c r="J20">
-        <v>0.2630681442687717</v>
+        <v>0.198866026203838</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.08518786580240256</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2504259508006044</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.655872525596152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8894960966175489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.760080902303514</v>
+        <v>5.641766200449354</v>
       </c>
       <c r="C21">
-        <v>1.501924624074491</v>
+        <v>1.653544439192842</v>
       </c>
       <c r="D21">
-        <v>0.3458541708664882</v>
+        <v>0.4275785467995661</v>
       </c>
       <c r="E21">
-        <v>0.2777140768056583</v>
+        <v>0.2967082121795315</v>
       </c>
       <c r="F21">
-        <v>0.9382257997783796</v>
+        <v>0.6123881056157643</v>
       </c>
       <c r="G21">
-        <v>0.0007689554850170421</v>
+        <v>0.2658468720460263</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01535551026927351</v>
       </c>
       <c r="J21">
-        <v>0.2950610938999176</v>
+        <v>0.2005648448552293</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.07318509547735186</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2800659981505333</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.784957555747866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9348714052476339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.192547120615302</v>
+        <v>6.050238604691572</v>
       </c>
       <c r="C22">
-        <v>1.611814788741526</v>
+        <v>1.763101241995969</v>
       </c>
       <c r="D22">
-        <v>0.3700882261461373</v>
+        <v>0.4562557782469412</v>
       </c>
       <c r="E22">
-        <v>0.2974535923837465</v>
+        <v>0.3171349803026828</v>
       </c>
       <c r="F22">
-        <v>0.99208363490105</v>
+        <v>0.644293572696796</v>
       </c>
       <c r="G22">
-        <v>0.0007648215287921478</v>
+        <v>0.281022651976869</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01797053398446646</v>
       </c>
       <c r="J22">
-        <v>0.3164944383791379</v>
+        <v>0.2029813494428225</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.06639353397601422</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2998666603760825</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.878502557020113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9723791885906792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.961424182277199</v>
+        <v>5.832279049610634</v>
       </c>
       <c r="C23">
-        <v>1.553101676107417</v>
+        <v>1.698957611688058</v>
       </c>
       <c r="D23">
-        <v>0.3571287298433816</v>
+        <v>0.4404038574201365</v>
       </c>
       <c r="E23">
-        <v>0.2868843078025805</v>
+        <v>0.3060819802600463</v>
       </c>
       <c r="F23">
-        <v>0.9630055222097269</v>
+        <v>0.6288378658389107</v>
       </c>
       <c r="G23">
-        <v>0.0007670230343876828</v>
+        <v>0.2741377587657681</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01629595435493236</v>
       </c>
       <c r="J23">
-        <v>0.3050035025127613</v>
+        <v>0.2023225830720889</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.07031985177991906</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2893375428156162</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.827683195611399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9562572871194845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.092300291514277</v>
+        <v>5.007615220617481</v>
       </c>
       <c r="C24">
-        <v>1.331990453644266</v>
+        <v>1.46637377506454</v>
       </c>
       <c r="D24">
-        <v>0.3085689824903568</v>
+        <v>0.3818232247791116</v>
       </c>
       <c r="E24">
-        <v>0.2475582150058031</v>
+        <v>0.2650058756479226</v>
       </c>
       <c r="F24">
-        <v>0.8598508522977397</v>
+        <v>0.5705259787430776</v>
       </c>
       <c r="G24">
-        <v>0.0007754734581791323</v>
+        <v>0.248048406132483</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01097866557528882</v>
       </c>
       <c r="J24">
-        <v>0.2625533101865756</v>
+        <v>0.1999087798139954</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.08597369088458873</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2500588218085511</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.653906370865201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8953239979119161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.16490134508166</v>
+        <v>4.119158963060613</v>
       </c>
       <c r="C25">
-        <v>1.095452405707192</v>
+        <v>1.217361876223436</v>
       </c>
       <c r="D25">
-        <v>0.2571032437601417</v>
+        <v>0.3197481285887704</v>
       </c>
       <c r="E25">
-        <v>0.2063919089114634</v>
+        <v>0.2217703655981254</v>
       </c>
       <c r="F25">
-        <v>0.7614333335020831</v>
+        <v>0.5133902286589418</v>
       </c>
       <c r="G25">
-        <v>0.0007848630354020918</v>
+        <v>0.2239467699336402</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006441610254531938</v>
       </c>
       <c r="J25">
-        <v>0.2186781337306059</v>
+        <v>0.1996433995668241</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1055319260775551</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2090089747166957</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.500962815623751</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.8430251881977853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_45/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.465051155964261</v>
+        <v>3.465322280569126</v>
       </c>
       <c r="C2">
-        <v>1.021879476191344</v>
+        <v>1.023251439480305</v>
       </c>
       <c r="D2">
-        <v>0.2735814344184746</v>
+        <v>0.2739762497508877</v>
       </c>
       <c r="E2">
-        <v>0.1903917448700554</v>
+        <v>0.1904499209007255</v>
       </c>
       <c r="F2">
-        <v>0.4797609812834196</v>
+        <v>0.4793446765576164</v>
       </c>
       <c r="G2">
-        <v>0.2123827456523841</v>
+        <v>0.1954432220098425</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003372259577535619</v>
+        <v>0.003480943310611551</v>
       </c>
       <c r="J2">
-        <v>0.2029318692150639</v>
+        <v>0.2444370728782772</v>
       </c>
       <c r="K2">
-        <v>0.1229894834461085</v>
+        <v>0.1220185323911807</v>
       </c>
       <c r="L2">
-        <v>0.1798833726119398</v>
+        <v>0.08848571548673068</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01824604254497941</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1797549722558003</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8248893417448926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8254061212158064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.021029507186597</v>
+        <v>3.022886260578275</v>
       </c>
       <c r="C3">
-        <v>0.8976297831056854</v>
+        <v>0.8906326010895498</v>
       </c>
       <c r="D3">
-        <v>0.2434222346309269</v>
+        <v>0.2432635757018318</v>
       </c>
       <c r="E3">
-        <v>0.1696909732130081</v>
+        <v>0.1696387382580937</v>
       </c>
       <c r="F3">
-        <v>0.4568826862929356</v>
+        <v>0.4579299790789406</v>
       </c>
       <c r="G3">
-        <v>0.2042888269050991</v>
+        <v>0.1881355631380686</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00203552235570692</v>
+        <v>0.002261240108107465</v>
       </c>
       <c r="J3">
-        <v>0.2051880110462889</v>
+        <v>0.24530711612163</v>
       </c>
       <c r="K3">
-        <v>0.1354151606925136</v>
+        <v>0.1336213965728668</v>
       </c>
       <c r="L3">
-        <v>0.1605249630140477</v>
+        <v>0.09419133232567667</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02210049857080865</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.160519699954591</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.81209304679696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8154724463529277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.747965432064461</v>
+        <v>2.750671908041909</v>
       </c>
       <c r="C4">
-        <v>0.8217587719485664</v>
+        <v>0.8098715781999033</v>
       </c>
       <c r="D4">
-        <v>0.2251036683538103</v>
+        <v>0.224630764637439</v>
       </c>
       <c r="E4">
-        <v>0.1571561732488824</v>
+        <v>0.1570387576051893</v>
       </c>
       <c r="F4">
-        <v>0.4438076467878673</v>
+        <v>0.4455872820849862</v>
       </c>
       <c r="G4">
-        <v>0.1999769351978884</v>
+        <v>0.1842931279055406</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001413802666464736</v>
+        <v>0.001676960684605877</v>
       </c>
       <c r="J4">
-        <v>0.2070049694633269</v>
+        <v>0.2460500530863072</v>
       </c>
       <c r="K4">
-        <v>0.1435590757038572</v>
+        <v>0.1411804008901978</v>
       </c>
       <c r="L4">
-        <v>0.1488439976523424</v>
+        <v>0.09803479205934718</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02496561440860057</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.14890290283018</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.806525227585098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8112142486136094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.636540885157444</v>
+        <v>2.639566000449747</v>
       </c>
       <c r="C5">
-        <v>0.7922905662450717</v>
+        <v>0.7784387370645618</v>
       </c>
       <c r="D5">
-        <v>0.2178139626875435</v>
+        <v>0.2172162525366161</v>
       </c>
       <c r="E5">
-        <v>0.1521199418888912</v>
+        <v>0.151976009904633</v>
       </c>
       <c r="F5">
-        <v>0.4382727098001027</v>
+        <v>0.4403194291861254</v>
       </c>
       <c r="G5">
-        <v>0.1980367003150008</v>
+        <v>0.1825506673543842</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001266564978780416</v>
+        <v>0.001549654268577783</v>
       </c>
       <c r="J5">
-        <v>0.207669487656247</v>
+        <v>0.2462191698501073</v>
       </c>
       <c r="K5">
-        <v>0.146887227152606</v>
+        <v>0.144251068677244</v>
       </c>
       <c r="L5">
-        <v>0.1441136129791118</v>
+        <v>0.09959146943065633</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02626173709296453</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1441964504718811</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8037066955698435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8088405930712668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.618002771387921</v>
+        <v>2.621078689167916</v>
       </c>
       <c r="C6">
-        <v>0.7890644105860645</v>
+        <v>0.7748476643919275</v>
       </c>
       <c r="D6">
-        <v>0.2167637933586946</v>
+        <v>0.2161417323095236</v>
       </c>
       <c r="E6">
-        <v>0.1513239306761314</v>
+        <v>0.1511747178213945</v>
       </c>
       <c r="F6">
-        <v>0.4368316972833597</v>
+        <v>0.4389313297204467</v>
       </c>
       <c r="G6">
-        <v>0.1973098695246946</v>
+        <v>0.1818694174566744</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001325115905149943</v>
+        <v>0.00162804388318083</v>
       </c>
       <c r="J6">
-        <v>0.2075659123979747</v>
+        <v>0.2460252832069258</v>
       </c>
       <c r="K6">
-        <v>0.1473080352687339</v>
+        <v>0.1446281625725829</v>
       </c>
       <c r="L6">
-        <v>0.1433090062141744</v>
+        <v>0.09974049963252618</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02649146375326028</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1433961787545428</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8019325886589002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8071581504943168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.746385834140426</v>
+        <v>2.749055831070336</v>
       </c>
       <c r="C7">
-        <v>0.8259106571410655</v>
+        <v>0.8132947310328404</v>
       </c>
       <c r="D7">
-        <v>0.225435845256996</v>
+        <v>0.2252028849684962</v>
       </c>
       <c r="E7">
-        <v>0.1571915600374219</v>
+        <v>0.1571315677281184</v>
       </c>
       <c r="F7">
-        <v>0.44226973072211</v>
+        <v>0.4432428033276139</v>
       </c>
       <c r="G7">
-        <v>0.1988203020684622</v>
+        <v>0.1852999895949665</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001615886392023036</v>
+        <v>0.001920638060084023</v>
       </c>
       <c r="J7">
-        <v>0.2064135186079596</v>
+        <v>0.2421463738586809</v>
       </c>
       <c r="K7">
-        <v>0.1432266911721172</v>
+        <v>0.1407356782940186</v>
       </c>
       <c r="L7">
-        <v>0.1487200873162706</v>
+        <v>0.09766484406568399</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02499606348250727</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1487449635022458</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8028330661166621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8055207248355174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.311926311426532</v>
+        <v>3.312635597346514</v>
       </c>
       <c r="C8">
-        <v>0.985024703365184</v>
+        <v>0.9813467681775307</v>
       </c>
       <c r="D8">
-        <v>0.2637107579263898</v>
+        <v>0.2647413409884933</v>
       </c>
       <c r="E8">
-        <v>0.1833527079658452</v>
+        <v>0.183569984510676</v>
       </c>
       <c r="F8">
-        <v>0.4697303097080123</v>
+        <v>0.4671096841532432</v>
       </c>
       <c r="G8">
-        <v>0.2079580173230227</v>
+        <v>0.1984666357385763</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.003110217880180066</v>
+        <v>0.003310216909588881</v>
       </c>
       <c r="J8">
-        <v>0.2028293395942029</v>
+        <v>0.2332199845947613</v>
       </c>
       <c r="K8">
-        <v>0.1266846954737417</v>
+        <v>0.1251247943861644</v>
       </c>
       <c r="L8">
-        <v>0.1730836113573844</v>
+        <v>0.08982579538754454</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01940001407723072</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1728814843396691</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8151713222642343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8100319894022618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.418544318954616</v>
+        <v>4.414372567741339</v>
       </c>
       <c r="C9">
-        <v>1.292647999210658</v>
+        <v>1.310746145892779</v>
       </c>
       <c r="D9">
-        <v>0.3397453234851753</v>
+        <v>0.3425501125588966</v>
       </c>
       <c r="E9">
-        <v>0.2360203214255847</v>
+        <v>0.236579240543449</v>
       </c>
       <c r="F9">
-        <v>0.534542898845757</v>
+        <v>0.5264599244578179</v>
       </c>
       <c r="G9">
-        <v>0.2335830648893307</v>
+        <v>0.2240381009432966</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.00748644505180085</v>
+        <v>0.007110917729334254</v>
       </c>
       <c r="J9">
-        <v>0.2004968424637994</v>
+        <v>0.2300969339493761</v>
       </c>
       <c r="K9">
-        <v>0.0992112128527225</v>
+        <v>0.09917225968290388</v>
       </c>
       <c r="L9">
-        <v>0.2227893843015067</v>
+        <v>0.07791638270695955</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01256084326122808</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2221661370172399</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8654636910717954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8485575514686019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.231403836317384</v>
+        <v>5.222376610752065</v>
       </c>
       <c r="C10">
-        <v>1.524138129916992</v>
+        <v>1.555725494028763</v>
       </c>
       <c r="D10">
-        <v>0.3971467168371419</v>
+        <v>0.4028880911643</v>
       </c>
       <c r="E10">
-        <v>0.2759478497617209</v>
+        <v>0.2771103671283015</v>
       </c>
       <c r="F10">
-        <v>0.5874658923598659</v>
+        <v>0.5694941722305842</v>
       </c>
       <c r="G10">
-        <v>0.2560161343053124</v>
+        <v>0.2594054593066275</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01211804182532905</v>
+        <v>0.01107190823981341</v>
       </c>
       <c r="J10">
-        <v>0.2010120863251998</v>
+        <v>0.2113216570772991</v>
       </c>
       <c r="K10">
-        <v>0.08185584546106117</v>
+        <v>0.08200960399037704</v>
       </c>
       <c r="L10">
-        <v>0.2606737815840461</v>
+        <v>0.07067229432271493</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.009926303057476105</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.259438471742655</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9146827399135162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8746531187813815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.601374140601479</v>
+        <v>5.589382178712697</v>
       </c>
       <c r="C11">
-        <v>1.638081943694885</v>
+        <v>1.669451705331255</v>
       </c>
       <c r="D11">
-        <v>0.4243221335866281</v>
+        <v>0.4341472417249861</v>
       </c>
       <c r="E11">
-        <v>0.294593975580284</v>
+        <v>0.2966615055300821</v>
       </c>
       <c r="F11">
-        <v>0.6107003928736034</v>
+        <v>0.5794044136448306</v>
       </c>
       <c r="G11">
-        <v>0.2654695419425792</v>
+        <v>0.2988923462208533</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01489193871436001</v>
+        <v>0.01349612567869762</v>
       </c>
       <c r="J11">
-        <v>0.2009160995572756</v>
+        <v>0.1763994908156761</v>
       </c>
       <c r="K11">
-        <v>0.0741874000255498</v>
+        <v>0.07369106928086788</v>
       </c>
       <c r="L11">
-        <v>0.2781781489496922</v>
+        <v>0.06752604189719824</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.008687969221103486</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2762469293500089</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9347790888329115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8630856770430739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.741626229956637</v>
+        <v>5.728405749447006</v>
       </c>
       <c r="C12">
-        <v>1.677269388226705</v>
+        <v>1.707786192005869</v>
       </c>
       <c r="D12">
-        <v>0.4342890344600505</v>
+        <v>0.4460370138869223</v>
       </c>
       <c r="E12">
-        <v>0.3016144712471274</v>
+        <v>0.3041104647098649</v>
       </c>
       <c r="F12">
-        <v>0.621000614160458</v>
+        <v>0.5834503001278506</v>
       </c>
       <c r="G12">
-        <v>0.2701865043756797</v>
+        <v>0.3186493591828281</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01582820644464444</v>
+        <v>0.01423682849286667</v>
       </c>
       <c r="J12">
-        <v>0.2014822239381857</v>
+        <v>0.16236958745462</v>
       </c>
       <c r="K12">
-        <v>0.07167290486699329</v>
+        <v>0.07079258515529308</v>
       </c>
       <c r="L12">
-        <v>0.2849196573301072</v>
+        <v>0.06648503738177106</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.008338256943499545</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2826670059558865</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9460599399432681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8594871539196873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.711431729173682</v>
+        <v>5.698479910264496</v>
       </c>
       <c r="C13">
-        <v>1.66799366045251</v>
+        <v>1.698742134365773</v>
       </c>
       <c r="D13">
-        <v>0.4320635267156092</v>
+        <v>0.4433812712709653</v>
       </c>
       <c r="E13">
-        <v>0.3000820223469418</v>
+        <v>0.302482273012032</v>
       </c>
       <c r="F13">
-        <v>0.6190248868852919</v>
+        <v>0.5828587923941413</v>
       </c>
       <c r="G13">
-        <v>0.2693573800747089</v>
+        <v>0.3144145827502172</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01558729593667341</v>
+        <v>0.01402934194712291</v>
       </c>
       <c r="J13">
-        <v>0.2014575551714088</v>
+        <v>0.1654722795891033</v>
       </c>
       <c r="K13">
-        <v>0.07226348585260922</v>
+        <v>0.07145346884759318</v>
       </c>
       <c r="L13">
-        <v>0.2834758297733515</v>
+        <v>0.06671484787249979</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.008433393864337724</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2812946709006638</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.94422998636432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8609323116443051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.612917477131134</v>
+        <v>5.600826309693446</v>
       </c>
       <c r="C14">
-        <v>1.640950802784801</v>
+        <v>1.672271469232101</v>
       </c>
       <c r="D14">
-        <v>0.4251085198724525</v>
+        <v>0.4350846409808753</v>
       </c>
       <c r="E14">
-        <v>0.2951628114807221</v>
+        <v>0.2972640355683751</v>
       </c>
       <c r="F14">
-        <v>0.6116506180992261</v>
+        <v>0.5798575217387238</v>
       </c>
       <c r="G14">
-        <v>0.2659367796385297</v>
+        <v>0.3005217024342102</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01495191653468186</v>
+        <v>0.01353629712317961</v>
       </c>
       <c r="J14">
-        <v>0.2010039103422372</v>
+        <v>0.1752861521949214</v>
       </c>
       <c r="K14">
-        <v>0.07400130545650452</v>
+        <v>0.07346872269757787</v>
       </c>
       <c r="L14">
-        <v>0.2787361429847834</v>
+        <v>0.0674432027364878</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.008667524258735959</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2767795033383607</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9359613609966715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8630782994327291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.55255595387365</v>
+        <v>5.540979375967311</v>
       </c>
       <c r="C15">
-        <v>1.626037373897702</v>
+        <v>1.657580781587967</v>
       </c>
       <c r="D15">
-        <v>0.421006191499032</v>
+        <v>0.430207588601121</v>
       </c>
       <c r="E15">
-        <v>0.2921920699370659</v>
+        <v>0.29412048134256</v>
       </c>
       <c r="F15">
-        <v>0.6066661220884129</v>
+        <v>0.5774260865995799</v>
       </c>
       <c r="G15">
-        <v>0.263480987770599</v>
+        <v>0.2921452236314366</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01464667772006667</v>
+        <v>0.01333525299260518</v>
       </c>
       <c r="J15">
-        <v>0.2005384440699487</v>
+        <v>0.1810587506518573</v>
       </c>
       <c r="K15">
-        <v>0.07497365301529335</v>
+        <v>0.0746275825204874</v>
       </c>
       <c r="L15">
-        <v>0.2758195973311928</v>
+        <v>0.06787736785052861</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.008773457445357735</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2739936017292166</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9297392830627871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8629680947505989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.206985842086624</v>
+        <v>5.198144852304438</v>
       </c>
       <c r="C16">
-        <v>1.530411862693711</v>
+        <v>1.561753071230044</v>
       </c>
       <c r="D16">
-        <v>0.3966443648003519</v>
+        <v>0.4021447735815684</v>
       </c>
       <c r="E16">
-        <v>0.2750373803467099</v>
+        <v>0.2761448943066682</v>
       </c>
       <c r="F16">
-        <v>0.5817658674399979</v>
+        <v>0.5646981151291683</v>
       </c>
       <c r="G16">
-        <v>0.2521858254977118</v>
+        <v>0.2541029002521071</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01253688486412763</v>
+        <v>0.01166259950549797</v>
       </c>
       <c r="J16">
-        <v>0.1993382237176888</v>
+        <v>0.2118686614397447</v>
       </c>
       <c r="K16">
-        <v>0.0814492146545005</v>
+        <v>0.08181112081044084</v>
       </c>
       <c r="L16">
-        <v>0.2593589583195808</v>
+        <v>0.07063463697791228</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.009682651990929436</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2581666010778463</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9030412953057834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8653101776288992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.995098167652202</v>
+        <v>4.98775462000981</v>
       </c>
       <c r="C17">
-        <v>1.471920769697533</v>
+        <v>1.501764611524152</v>
       </c>
       <c r="D17">
-        <v>0.3817864472138979</v>
+        <v>0.3856288665629677</v>
       </c>
       <c r="E17">
-        <v>0.264595767035523</v>
+        <v>0.2653392164386119</v>
       </c>
       <c r="F17">
-        <v>0.5669142110358294</v>
+        <v>0.5553494654369544</v>
       </c>
       <c r="G17">
-        <v>0.2455540329379886</v>
+        <v>0.2366964524076067</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01134145597045944</v>
+        <v>0.0107035709555614</v>
       </c>
       <c r="J17">
-        <v>0.198771838506822</v>
+        <v>0.2264489138036794</v>
       </c>
       <c r="K17">
-        <v>0.08561711007729045</v>
+        <v>0.08623835410814973</v>
       </c>
       <c r="L17">
-        <v>0.2493610735459697</v>
+        <v>0.07242097825491478</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01029249454357384</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2484631007384053</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8876468917654989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.863039613224359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.87333032202605</v>
+        <v>4.866782496363669</v>
       </c>
       <c r="C18">
-        <v>1.434189095412478</v>
+        <v>1.462737468948546</v>
       </c>
       <c r="D18">
-        <v>0.3728875365736712</v>
+        <v>0.3759961779769156</v>
       </c>
       <c r="E18">
-        <v>0.2585273819727973</v>
+        <v>0.2591121390858362</v>
       </c>
       <c r="F18">
-        <v>0.5597962599001249</v>
+        <v>0.5506573795647967</v>
       </c>
       <c r="G18">
-        <v>0.2428220695547765</v>
+        <v>0.2295648583716741</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0104703535520505</v>
+        <v>0.009904346891085325</v>
       </c>
       <c r="J18">
-        <v>0.1990191680268296</v>
+        <v>0.2332933204012235</v>
       </c>
       <c r="K18">
-        <v>0.08836247397726549</v>
+        <v>0.089023418166847</v>
       </c>
       <c r="L18">
-        <v>0.2436994722998804</v>
+        <v>0.07356762746477497</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01075777457312643</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2429366416015739</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8822862617351461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8634167075826866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.832049385057189</v>
+        <v>4.825761634264609</v>
       </c>
       <c r="C19">
-        <v>1.424622442141811</v>
+        <v>1.452618040839639</v>
       </c>
       <c r="D19">
-        <v>0.3701754028183899</v>
+        <v>0.3730645372337165</v>
       </c>
       <c r="E19">
-        <v>0.2565479692984241</v>
+        <v>0.2570853655519869</v>
       </c>
       <c r="F19">
-        <v>0.5564277929660548</v>
+        <v>0.5480320414947712</v>
       </c>
       <c r="G19">
-        <v>0.2411601192998916</v>
+        <v>0.2267377752985453</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01034602176199417</v>
+        <v>0.009842896514830279</v>
       </c>
       <c r="J19">
-        <v>0.1987175299188522</v>
+        <v>0.234859492247999</v>
       </c>
       <c r="K19">
-        <v>0.08908850136268143</v>
+        <v>0.0897828447706619</v>
       </c>
       <c r="L19">
-        <v>0.2417467224590695</v>
+        <v>0.07388727508606419</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01084944446278735</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.241025356348203</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8781019187752719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8610071461251607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.017656389237288</v>
+        <v>5.01015997801403</v>
       </c>
       <c r="C20">
-        <v>1.477815004167155</v>
+        <v>1.507871956322617</v>
       </c>
       <c r="D20">
-        <v>0.3833347906945903</v>
+        <v>0.3873321029159058</v>
       </c>
       <c r="E20">
-        <v>0.265697120826367</v>
+        <v>0.2664744158617793</v>
       </c>
       <c r="F20">
-        <v>0.5685796051128023</v>
+        <v>0.556497327347337</v>
       </c>
       <c r="G20">
-        <v>0.2463257504528684</v>
+        <v>0.2384182134229675</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0114477306208709</v>
+        <v>0.0107815822709183</v>
       </c>
       <c r="J20">
-        <v>0.198866026203838</v>
+        <v>0.2251365305632191</v>
       </c>
       <c r="K20">
-        <v>0.08518786580240256</v>
+        <v>0.08578499000549034</v>
       </c>
       <c r="L20">
-        <v>0.2504259508006044</v>
+        <v>0.07223482030476713</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01023253865721063</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2494999543256142</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8894960966175489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8636535232625278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.641766200449354</v>
+        <v>5.629269311661687</v>
       </c>
       <c r="C21">
-        <v>1.653544439192842</v>
+        <v>1.682372062251034</v>
       </c>
       <c r="D21">
-        <v>0.4275785467995661</v>
+        <v>0.4389013873551164</v>
       </c>
       <c r="E21">
-        <v>0.2967082121795315</v>
+        <v>0.2991187002855611</v>
       </c>
       <c r="F21">
-        <v>0.6123881056157643</v>
+        <v>0.5763668304142442</v>
       </c>
       <c r="G21">
-        <v>0.2658468720460263</v>
+        <v>0.3121394323915609</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01535551026927351</v>
+        <v>0.01393319122541214</v>
       </c>
       <c r="J21">
-        <v>0.2005648448552293</v>
+        <v>0.1640504319861833</v>
       </c>
       <c r="K21">
-        <v>0.07318509547735186</v>
+        <v>0.07240116163603494</v>
       </c>
       <c r="L21">
-        <v>0.2800659981505333</v>
+        <v>0.06710505787679344</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.008342963380778556</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2779072118883903</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9348714052476339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8519661983585252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.050238604691572</v>
+        <v>6.034130639356135</v>
       </c>
       <c r="C22">
-        <v>1.763101241995969</v>
+        <v>1.790212621466708</v>
       </c>
       <c r="D22">
-        <v>0.4562557782469412</v>
+        <v>0.4729452945931598</v>
       </c>
       <c r="E22">
-        <v>0.3171349803026828</v>
+        <v>0.3207338829025375</v>
       </c>
       <c r="F22">
-        <v>0.644293572696796</v>
+        <v>0.5908276576002294</v>
       </c>
       <c r="G22">
-        <v>0.281022651976869</v>
+        <v>0.3702660254046748</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01797053398446646</v>
+        <v>0.01590719023465326</v>
       </c>
       <c r="J22">
-        <v>0.2029813494428225</v>
+        <v>0.1322090018357684</v>
       </c>
       <c r="K22">
-        <v>0.06639353397601422</v>
+        <v>0.06453463757215472</v>
       </c>
       <c r="L22">
-        <v>0.2998666603760825</v>
+        <v>0.0643749326804115</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.007613687284058201</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2967997095243788</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9723791885906792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8480782264452529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.832279049610634</v>
+        <v>5.818234072200084</v>
       </c>
       <c r="C23">
-        <v>1.698957611688058</v>
+        <v>1.728738748187368</v>
       </c>
       <c r="D23">
-        <v>0.4404038574201365</v>
+        <v>0.4535050176246216</v>
       </c>
       <c r="E23">
-        <v>0.3060819802600463</v>
+        <v>0.3088806143724625</v>
       </c>
       <c r="F23">
-        <v>0.6288378658389107</v>
+        <v>0.5868498229121002</v>
       </c>
       <c r="G23">
-        <v>0.2741377587657681</v>
+        <v>0.3335193851696943</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01629595435493236</v>
+        <v>0.01453226015556819</v>
       </c>
       <c r="J23">
-        <v>0.2023225830720889</v>
+        <v>0.1535390433841428</v>
       </c>
       <c r="K23">
-        <v>0.07031985177991906</v>
+        <v>0.06909618277903684</v>
       </c>
       <c r="L23">
-        <v>0.2893375428156162</v>
+        <v>0.06587435456115248</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.008208744618404928</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2868595999696453</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9562572871194845</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8590702633918994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.007615220617481</v>
+        <v>5.000184283976239</v>
       </c>
       <c r="C24">
-        <v>1.46637377506454</v>
+        <v>1.496430071908435</v>
       </c>
       <c r="D24">
-        <v>0.3818232247791116</v>
+        <v>0.3857663032558492</v>
       </c>
       <c r="E24">
-        <v>0.2650058756479226</v>
+        <v>0.2657723504035729</v>
       </c>
       <c r="F24">
-        <v>0.5705259787430776</v>
+        <v>0.5585717517017343</v>
       </c>
       <c r="G24">
-        <v>0.248048406132483</v>
+        <v>0.2396447583949097</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01097866557528882</v>
+        <v>0.01022067576184238</v>
       </c>
       <c r="J24">
-        <v>0.1999087798139954</v>
+        <v>0.2267374505837978</v>
       </c>
       <c r="K24">
-        <v>0.08597369088458873</v>
+        <v>0.08648627062613823</v>
       </c>
       <c r="L24">
-        <v>0.2500588218085511</v>
+        <v>0.07250508981945947</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01045950473478641</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2491424456867719</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8953239979119161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8697150644019018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.119158963060613</v>
+        <v>4.116525463078972</v>
       </c>
       <c r="C25">
-        <v>1.217361876223436</v>
+        <v>1.230116664571142</v>
       </c>
       <c r="D25">
-        <v>0.3197481285887704</v>
+        <v>0.3216693089539717</v>
       </c>
       <c r="E25">
-        <v>0.2217703655981254</v>
+        <v>0.2221455564321957</v>
       </c>
       <c r="F25">
-        <v>0.5133902286589418</v>
+        <v>0.5082366687126623</v>
       </c>
       <c r="G25">
-        <v>0.2239467699336402</v>
+        <v>0.2114007919316805</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.006441610254531938</v>
+        <v>0.006352049478898891</v>
       </c>
       <c r="J25">
-        <v>0.1996433995668241</v>
+        <v>0.2341977845732117</v>
       </c>
       <c r="K25">
-        <v>0.1055319260775551</v>
+        <v>0.1053619176492644</v>
       </c>
       <c r="L25">
-        <v>0.2090089747166957</v>
+        <v>0.08063221808501186</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01384849723820203</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2085681808272</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.8430251881977853</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8329318247609194</v>
       </c>
     </row>
   </sheetData>
